--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_liwc.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_liwc.xlsx
@@ -11,16 +11,17 @@
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="2013" sheetId="3" r:id="rId3"/>
     <sheet name="2014" sheetId="4" r:id="rId4"/>
-    <sheet name="2016" sheetId="5" r:id="rId5"/>
-    <sheet name="2017" sheetId="6" r:id="rId6"/>
-    <sheet name="2018" sheetId="7" r:id="rId7"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
+    <sheet name="2018" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="275">
   <si>
     <t>factcheckURL</t>
   </si>
@@ -434,6 +435,42 @@
   </si>
   <si>
     <t>http://www.politifact.com/wisconsin/statements/2014/jul/02/state-democratic-party-wisconsin/wisconsin-sen-ron-johnson-largely-unknown-democrat/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/nov/06/greg-abbott/greg-abbott-embarrassed-says-californians-buying-m/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/16/scott-walker/gov-scott-walker-says-board-wanted-accept-mickey-m/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/oct/05/dana-loesch/Planned-parenthood-86-percent-abortion-revenue/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/sep/23/donald-trump/hillary-clinton-obama-birther-fact-check/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/sep/10/ted-cruz/ted-cruz-says-deal-will-facilitate-and-accelerate-/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/aug/26/hillary-clinton/hillary-clinton-says-no-gop-candidate-has-talked-a/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jul/21/wisconsin-state-afl-cio/wisconsin-afl-cio-says-scott-walker-budget-means-n/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/mar/20/glenn-beck/glenn-beck-says-barack-obama-took-iran-hamas-us-te/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/nov/08/ben-carson/ben-carson-said-no-one-who-signed-declaration-inde/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jul/07/dinesh-dsouza/hillary-clinton-confederate-battle-flag-nope-old-i/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/jun/25/gavin-mcinnes/tweet-civil-war-was-about-secession-not-slavery/</t>
+  </si>
+  <si>
+    <t>https://www.politifact.com/factchecks/2015/feb/06/scott-walker/despite-deliberate-actions-scott-walker-calls-chan/</t>
   </si>
   <si>
     <t>http://www.politifact.com/florida/statements/2016/aug/12/carlos-beruff/fbi-admitted-it-cannot-properly-vet-middle-eastern/</t>
@@ -9194,6 +9231,4718 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:DP13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:120">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:120">
+      <c r="A2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>95.09</v>
+      </c>
+      <c r="E2">
+        <v>70.59</v>
+      </c>
+      <c r="F2">
+        <v>99</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>6.33</v>
+      </c>
+      <c r="I2">
+        <v>15.79</v>
+      </c>
+      <c r="J2">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="K2">
+        <v>47.37</v>
+      </c>
+      <c r="L2">
+        <v>36.84</v>
+      </c>
+      <c r="M2">
+        <v>10.53</v>
+      </c>
+      <c r="N2">
+        <v>10.53</v>
+      </c>
+      <c r="O2">
+        <v>5.26</v>
+      </c>
+      <c r="P2">
+        <v>5.26</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>5.26</v>
+      </c>
+      <c r="V2">
+        <v>5.26</v>
+      </c>
+      <c r="W2">
+        <v>5.26</v>
+      </c>
+      <c r="X2">
+        <v>21.05</v>
+      </c>
+      <c r="Y2">
+        <v>10.53</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>15.79</v>
+      </c>
+      <c r="AD2">
+        <v>5.26</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>5.26</v>
+      </c>
+      <c r="AG2">
+        <v>5.26</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>15.79</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>15.79</v>
+      </c>
+      <c r="AU2">
+        <v>5.26</v>
+      </c>
+      <c r="AV2">
+        <v>10.53</v>
+      </c>
+      <c r="AW2">
+        <v>5.26</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>5.26</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>10.53</v>
+      </c>
+      <c r="BE2">
+        <v>5.26</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>5.26</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>5.26</v>
+      </c>
+      <c r="BQ2">
+        <v>5.26</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>5.26</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>5.26</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>5.26</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>21.05</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>5.26</v>
+      </c>
+      <c r="CV2">
+        <v>15.79</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>5.26</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>10.53</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>42.11</v>
+      </c>
+      <c r="DJ2">
+        <v>10.53</v>
+      </c>
+      <c r="DK2">
+        <v>5.26</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>10.53</v>
+      </c>
+      <c r="DO2">
+        <v>15.79</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:120">
+      <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>95.8</v>
+      </c>
+      <c r="F3">
+        <v>1.63</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>62.5</v>
+      </c>
+      <c r="K3">
+        <v>43.75</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>18.75</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>12.5</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>12.5</v>
+      </c>
+      <c r="AD3">
+        <v>6.25</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>18.75</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>18.75</v>
+      </c>
+      <c r="AM3">
+        <v>12.5</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>6.25</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>6.25</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>6.25</v>
+      </c>
+      <c r="BE3">
+        <v>6.25</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>6.25</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>6.25</v>
+      </c>
+      <c r="BQ3">
+        <v>6.25</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>6.25</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>6.25</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>6.25</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>6.25</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>12.5</v>
+      </c>
+      <c r="DJ3">
+        <v>6.25</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>6.25</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:120">
+      <c r="A4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>89.52</v>
+      </c>
+      <c r="E4">
+        <v>77.41</v>
+      </c>
+      <c r="F4">
+        <v>1.91</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>7.5</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>86.67</v>
+      </c>
+      <c r="K4">
+        <v>53.33</v>
+      </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>6.67</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>6.67</v>
+      </c>
+      <c r="U4">
+        <v>6.67</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>6.67</v>
+      </c>
+      <c r="X4">
+        <v>20</v>
+      </c>
+      <c r="Y4">
+        <v>13.33</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>13.33</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>6.67</v>
+      </c>
+      <c r="AF4">
+        <v>20</v>
+      </c>
+      <c r="AG4">
+        <v>6.67</v>
+      </c>
+      <c r="AH4">
+        <v>6.67</v>
+      </c>
+      <c r="AI4">
+        <v>6.67</v>
+      </c>
+      <c r="AJ4">
+        <v>26.67</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>13.33</v>
+      </c>
+      <c r="AM4">
+        <v>6.67</v>
+      </c>
+      <c r="AN4">
+        <v>6.67</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>13.33</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>6.67</v>
+      </c>
+      <c r="AW4">
+        <v>6.67</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>6.67</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>6.67</v>
+      </c>
+      <c r="BL4">
+        <v>6.67</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>6.67</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>6.67</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>6.67</v>
+      </c>
+      <c r="CA4">
+        <v>6.67</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>6.67</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>6.67</v>
+      </c>
+      <c r="DB4">
+        <v>13.33</v>
+      </c>
+      <c r="DC4">
+        <v>6.67</v>
+      </c>
+      <c r="DD4">
+        <v>6.67</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>6.67</v>
+      </c>
+      <c r="DI4">
+        <v>33.33</v>
+      </c>
+      <c r="DJ4">
+        <v>13.33</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>6.67</v>
+      </c>
+      <c r="DO4">
+        <v>13.33</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:120">
+      <c r="A5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>89.52</v>
+      </c>
+      <c r="E5">
+        <v>75.48999999999999</v>
+      </c>
+      <c r="F5">
+        <v>89.39</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>37.5</v>
+      </c>
+      <c r="J5">
+        <v>81.25</v>
+      </c>
+      <c r="K5">
+        <v>68.75</v>
+      </c>
+      <c r="L5">
+        <v>56.25</v>
+      </c>
+      <c r="M5">
+        <v>6.25</v>
+      </c>
+      <c r="N5">
+        <v>6.25</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>6.25</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>12.5</v>
+      </c>
+      <c r="V5">
+        <v>6.25</v>
+      </c>
+      <c r="W5">
+        <v>6.25</v>
+      </c>
+      <c r="X5">
+        <v>18.75</v>
+      </c>
+      <c r="Y5">
+        <v>12.5</v>
+      </c>
+      <c r="Z5">
+        <v>6.25</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>25</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>6.25</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>31.25</v>
+      </c>
+      <c r="AK5">
+        <v>6.25</v>
+      </c>
+      <c r="AL5">
+        <v>6.25</v>
+      </c>
+      <c r="AM5">
+        <v>6.25</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>6.25</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>6.25</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>6.25</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>6.25</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>18.75</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>6.25</v>
+      </c>
+      <c r="CV5">
+        <v>12.5</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>6.25</v>
+      </c>
+      <c r="DA5">
+        <v>25</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>18.75</v>
+      </c>
+      <c r="DJ5">
+        <v>6.25</v>
+      </c>
+      <c r="DK5">
+        <v>6.25</v>
+      </c>
+      <c r="DL5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>6.25</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>0</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:120">
+      <c r="A6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>96.08</v>
+      </c>
+      <c r="F6">
+        <v>1.91</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>46.67</v>
+      </c>
+      <c r="J6">
+        <v>66.67</v>
+      </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>33.33</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>13.33</v>
+      </c>
+      <c r="V6">
+        <v>13.33</v>
+      </c>
+      <c r="W6">
+        <v>6.67</v>
+      </c>
+      <c r="X6">
+        <v>6.67</v>
+      </c>
+      <c r="Y6">
+        <v>6.67</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>6.67</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>6.67</v>
+      </c>
+      <c r="AD6">
+        <v>6.67</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>6.67</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>6.67</v>
+      </c>
+      <c r="AJ6">
+        <v>6.67</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>13.33</v>
+      </c>
+      <c r="BQ6">
+        <v>6.67</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>6.67</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>6.67</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>6.67</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>6.67</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>6.67</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DH6">
+        <v>0</v>
+      </c>
+      <c r="DI6">
+        <v>26.67</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6">
+        <v>0</v>
+      </c>
+      <c r="DL6">
+        <v>0</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DO6">
+        <v>26.67</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:120">
+      <c r="A7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>56.86</v>
+      </c>
+      <c r="E7">
+        <v>4.61</v>
+      </c>
+      <c r="F7">
+        <v>56.69</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>10.5</v>
+      </c>
+      <c r="I7">
+        <v>28.57</v>
+      </c>
+      <c r="J7">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="K7">
+        <v>57.14</v>
+      </c>
+      <c r="L7">
+        <v>47.62</v>
+      </c>
+      <c r="M7">
+        <v>4.76</v>
+      </c>
+      <c r="N7">
+        <v>4.76</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>4.76</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>9.52</v>
+      </c>
+      <c r="V7">
+        <v>9.52</v>
+      </c>
+      <c r="W7">
+        <v>4.76</v>
+      </c>
+      <c r="X7">
+        <v>9.52</v>
+      </c>
+      <c r="Y7">
+        <v>9.52</v>
+      </c>
+      <c r="Z7">
+        <v>4.76</v>
+      </c>
+      <c r="AA7">
+        <v>4.76</v>
+      </c>
+      <c r="AB7">
+        <v>9.52</v>
+      </c>
+      <c r="AC7">
+        <v>14.29</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>9.52</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>33.33</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>23.81</v>
+      </c>
+      <c r="AM7">
+        <v>4.76</v>
+      </c>
+      <c r="AN7">
+        <v>4.76</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>9.52</v>
+      </c>
+      <c r="AR7">
+        <v>9.52</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>9.52</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>4.76</v>
+      </c>
+      <c r="AW7">
+        <v>9.52</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>4.76</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>4.76</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>14.29</v>
+      </c>
+      <c r="BE7">
+        <v>4.76</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>4.76</v>
+      </c>
+      <c r="BK7">
+        <v>9.52</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>9.52</v>
+      </c>
+      <c r="BQ7">
+        <v>9.52</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>9.52</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>4.76</v>
+      </c>
+      <c r="BX7">
+        <v>4.76</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7">
+        <v>0</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>9.52</v>
+      </c>
+      <c r="CT7">
+        <v>4.76</v>
+      </c>
+      <c r="CU7">
+        <v>4.76</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>4.76</v>
+      </c>
+      <c r="DB7">
+        <v>4.76</v>
+      </c>
+      <c r="DC7">
+        <v>0</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7">
+        <v>0</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>0</v>
+      </c>
+      <c r="DH7">
+        <v>0</v>
+      </c>
+      <c r="DI7">
+        <v>19.05</v>
+      </c>
+      <c r="DJ7">
+        <v>9.52</v>
+      </c>
+      <c r="DK7">
+        <v>4.76</v>
+      </c>
+      <c r="DL7">
+        <v>0</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>4.76</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:120">
+      <c r="A8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>86.81999999999999</v>
+      </c>
+      <c r="F8">
+        <v>50.45</v>
+      </c>
+      <c r="G8">
+        <v>86.79000000000001</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>27.27</v>
+      </c>
+      <c r="J8">
+        <v>86.36</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>36.36</v>
+      </c>
+      <c r="M8">
+        <v>4.55</v>
+      </c>
+      <c r="N8">
+        <v>4.55</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>4.55</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>18.18</v>
+      </c>
+      <c r="V8">
+        <v>18.18</v>
+      </c>
+      <c r="W8">
+        <v>9.09</v>
+      </c>
+      <c r="X8">
+        <v>13.64</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>4.55</v>
+      </c>
+      <c r="AD8">
+        <v>4.55</v>
+      </c>
+      <c r="AE8">
+        <v>9.09</v>
+      </c>
+      <c r="AF8">
+        <v>4.55</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>4.55</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>9.09</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>4.55</v>
+      </c>
+      <c r="AU8">
+        <v>4.55</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>9.09</v>
+      </c>
+      <c r="BE8">
+        <v>4.55</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>4.55</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>4.55</v>
+      </c>
+      <c r="BQ8">
+        <v>4.55</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>9.09</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>4.55</v>
+      </c>
+      <c r="BX8">
+        <v>4.55</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>4.55</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>4.55</v>
+      </c>
+      <c r="CS8">
+        <v>9.09</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>4.55</v>
+      </c>
+      <c r="CV8">
+        <v>4.55</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>0</v>
+      </c>
+      <c r="CY8">
+        <v>0</v>
+      </c>
+      <c r="CZ8">
+        <v>9.09</v>
+      </c>
+      <c r="DA8">
+        <v>4.55</v>
+      </c>
+      <c r="DB8">
+        <v>0</v>
+      </c>
+      <c r="DC8">
+        <v>0</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8">
+        <v>0</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>0</v>
+      </c>
+      <c r="DH8">
+        <v>0</v>
+      </c>
+      <c r="DI8">
+        <v>22.73</v>
+      </c>
+      <c r="DJ8">
+        <v>4.55</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>0</v>
+      </c>
+      <c r="DM8">
+        <v>4.55</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>13.64</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:120">
+      <c r="A9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>572</v>
+      </c>
+      <c r="D9">
+        <v>23.19</v>
+      </c>
+      <c r="E9">
+        <v>76.51000000000001</v>
+      </c>
+      <c r="F9">
+        <v>42.88</v>
+      </c>
+      <c r="G9">
+        <v>3.56</v>
+      </c>
+      <c r="H9">
+        <v>11.67</v>
+      </c>
+      <c r="I9">
+        <v>12.59</v>
+      </c>
+      <c r="J9">
+        <v>92.13</v>
+      </c>
+      <c r="K9">
+        <v>69.23</v>
+      </c>
+      <c r="L9">
+        <v>59.79</v>
+      </c>
+      <c r="M9">
+        <v>18.01</v>
+      </c>
+      <c r="N9">
+        <v>12.59</v>
+      </c>
+      <c r="O9">
+        <v>3.32</v>
+      </c>
+      <c r="P9">
+        <v>4.9</v>
+      </c>
+      <c r="Q9">
+        <v>0.87</v>
+      </c>
+      <c r="R9">
+        <v>1.75</v>
+      </c>
+      <c r="S9">
+        <v>1.05</v>
+      </c>
+      <c r="T9">
+        <v>5.42</v>
+      </c>
+      <c r="U9">
+        <v>15.21</v>
+      </c>
+      <c r="V9">
+        <v>6.47</v>
+      </c>
+      <c r="W9">
+        <v>1.22</v>
+      </c>
+      <c r="X9">
+        <v>11.01</v>
+      </c>
+      <c r="Y9">
+        <v>12.06</v>
+      </c>
+      <c r="Z9">
+        <v>3.5</v>
+      </c>
+      <c r="AA9">
+        <v>6.47</v>
+      </c>
+      <c r="AB9">
+        <v>3.67</v>
+      </c>
+      <c r="AC9">
+        <v>19.58</v>
+      </c>
+      <c r="AD9">
+        <v>1.92</v>
+      </c>
+      <c r="AE9">
+        <v>2.97</v>
+      </c>
+      <c r="AF9">
+        <v>9.09</v>
+      </c>
+      <c r="AG9">
+        <v>5.42</v>
+      </c>
+      <c r="AH9">
+        <v>0.52</v>
+      </c>
+      <c r="AI9">
+        <v>3.15</v>
+      </c>
+      <c r="AJ9">
+        <v>24.83</v>
+      </c>
+      <c r="AK9">
+        <v>1.4</v>
+      </c>
+      <c r="AL9">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="AM9">
+        <v>2.1</v>
+      </c>
+      <c r="AN9">
+        <v>1.05</v>
+      </c>
+      <c r="AO9">
+        <v>1.57</v>
+      </c>
+      <c r="AP9">
+        <v>0.7</v>
+      </c>
+      <c r="AQ9">
+        <v>0.7</v>
+      </c>
+      <c r="AR9">
+        <v>4.02</v>
+      </c>
+      <c r="AS9">
+        <v>0.17</v>
+      </c>
+      <c r="AT9">
+        <v>5.77</v>
+      </c>
+      <c r="AU9">
+        <v>1.75</v>
+      </c>
+      <c r="AV9">
+        <v>4.02</v>
+      </c>
+      <c r="AW9">
+        <v>0.87</v>
+      </c>
+      <c r="AX9">
+        <v>0.52</v>
+      </c>
+      <c r="AY9">
+        <v>0.35</v>
+      </c>
+      <c r="AZ9">
+        <v>0.17</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>18.88</v>
+      </c>
+      <c r="BE9">
+        <v>6.47</v>
+      </c>
+      <c r="BF9">
+        <v>0.35</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0.87</v>
+      </c>
+      <c r="BI9">
+        <v>1.22</v>
+      </c>
+      <c r="BJ9">
+        <v>2.97</v>
+      </c>
+      <c r="BK9">
+        <v>11.71</v>
+      </c>
+      <c r="BL9">
+        <v>0.52</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0.17</v>
+      </c>
+      <c r="BO9">
+        <v>2.27</v>
+      </c>
+      <c r="BP9">
+        <v>2.8</v>
+      </c>
+      <c r="BQ9">
+        <v>1.05</v>
+      </c>
+      <c r="BR9">
+        <v>1.57</v>
+      </c>
+      <c r="BS9">
+        <v>0.17</v>
+      </c>
+      <c r="BT9">
+        <v>4.72</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0.17</v>
+      </c>
+      <c r="BW9">
+        <v>0.87</v>
+      </c>
+      <c r="BX9">
+        <v>0.7</v>
+      </c>
+      <c r="BY9">
+        <v>2.97</v>
+      </c>
+      <c r="BZ9">
+        <v>2.45</v>
+      </c>
+      <c r="CA9">
+        <v>0</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0.17</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>1.05</v>
+      </c>
+      <c r="CI9">
+        <v>0.35</v>
+      </c>
+      <c r="CJ9">
+        <v>0.35</v>
+      </c>
+      <c r="CK9">
+        <v>0.35</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0.17</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>1.22</v>
+      </c>
+      <c r="CQ9">
+        <v>0.17</v>
+      </c>
+      <c r="CR9">
+        <v>7.34</v>
+      </c>
+      <c r="CS9">
+        <v>9.27</v>
+      </c>
+      <c r="CT9">
+        <v>0.87</v>
+      </c>
+      <c r="CU9">
+        <v>1.4</v>
+      </c>
+      <c r="CV9">
+        <v>5.59</v>
+      </c>
+      <c r="CW9">
+        <v>1.75</v>
+      </c>
+      <c r="CX9">
+        <v>0.35</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="CZ9">
+        <v>4.02</v>
+      </c>
+      <c r="DA9">
+        <v>4.02</v>
+      </c>
+      <c r="DB9">
+        <v>6.64</v>
+      </c>
+      <c r="DC9">
+        <v>2.97</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DF9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0</v>
+      </c>
+      <c r="DI9">
+        <v>15.73</v>
+      </c>
+      <c r="DJ9">
+        <v>8.57</v>
+      </c>
+      <c r="DK9">
+        <v>2.8</v>
+      </c>
+      <c r="DL9">
+        <v>0.17</v>
+      </c>
+      <c r="DM9">
+        <v>1.22</v>
+      </c>
+      <c r="DN9">
+        <v>0.35</v>
+      </c>
+      <c r="DO9">
+        <v>2.62</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:120">
+      <c r="A10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>742</v>
+      </c>
+      <c r="D10">
+        <v>44.27</v>
+      </c>
+      <c r="E10">
+        <v>24.88</v>
+      </c>
+      <c r="F10">
+        <v>79.41</v>
+      </c>
+      <c r="G10">
+        <v>33.4</v>
+      </c>
+      <c r="H10">
+        <v>12.58</v>
+      </c>
+      <c r="I10">
+        <v>19.27</v>
+      </c>
+      <c r="J10">
+        <v>91.23999999999999</v>
+      </c>
+      <c r="K10">
+        <v>69.95</v>
+      </c>
+      <c r="L10">
+        <v>56.6</v>
+      </c>
+      <c r="M10">
+        <v>17.65</v>
+      </c>
+      <c r="N10">
+        <v>12.94</v>
+      </c>
+      <c r="O10">
+        <v>7.95</v>
+      </c>
+      <c r="P10">
+        <v>1.21</v>
+      </c>
+      <c r="Q10">
+        <v>1.75</v>
+      </c>
+      <c r="R10">
+        <v>0.13</v>
+      </c>
+      <c r="S10">
+        <v>1.75</v>
+      </c>
+      <c r="T10">
+        <v>4.72</v>
+      </c>
+      <c r="U10">
+        <v>16.31</v>
+      </c>
+      <c r="V10">
+        <v>6.47</v>
+      </c>
+      <c r="W10">
+        <v>1.21</v>
+      </c>
+      <c r="X10">
+        <v>12.4</v>
+      </c>
+      <c r="Y10">
+        <v>9.43</v>
+      </c>
+      <c r="Z10">
+        <v>3.1</v>
+      </c>
+      <c r="AA10">
+        <v>4.99</v>
+      </c>
+      <c r="AB10">
+        <v>2.16</v>
+      </c>
+      <c r="AC10">
+        <v>16.71</v>
+      </c>
+      <c r="AD10">
+        <v>6.6</v>
+      </c>
+      <c r="AE10">
+        <v>3.77</v>
+      </c>
+      <c r="AF10">
+        <v>7.68</v>
+      </c>
+      <c r="AG10">
+        <v>2.16</v>
+      </c>
+      <c r="AH10">
+        <v>1.62</v>
+      </c>
+      <c r="AI10">
+        <v>4.45</v>
+      </c>
+      <c r="AJ10">
+        <v>23.32</v>
+      </c>
+      <c r="AK10">
+        <v>2.16</v>
+      </c>
+      <c r="AL10">
+        <v>10.24</v>
+      </c>
+      <c r="AM10">
+        <v>2.56</v>
+      </c>
+      <c r="AN10">
+        <v>0.67</v>
+      </c>
+      <c r="AO10">
+        <v>1.89</v>
+      </c>
+      <c r="AP10">
+        <v>1.21</v>
+      </c>
+      <c r="AQ10">
+        <v>0.27</v>
+      </c>
+      <c r="AR10">
+        <v>3.91</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>4.99</v>
+      </c>
+      <c r="AU10">
+        <v>2.96</v>
+      </c>
+      <c r="AV10">
+        <v>2.02</v>
+      </c>
+      <c r="AW10">
+        <v>1.48</v>
+      </c>
+      <c r="AX10">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AY10">
+        <v>0.54</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0.13</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>11.99</v>
+      </c>
+      <c r="BE10">
+        <v>3.37</v>
+      </c>
+      <c r="BF10">
+        <v>0.54</v>
+      </c>
+      <c r="BG10">
+        <v>0.13</v>
+      </c>
+      <c r="BH10">
+        <v>0.13</v>
+      </c>
+      <c r="BI10">
+        <v>0.27</v>
+      </c>
+      <c r="BJ10">
+        <v>1.21</v>
+      </c>
+      <c r="BK10">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="BL10">
+        <v>0.54</v>
+      </c>
+      <c r="BM10">
+        <v>0.13</v>
+      </c>
+      <c r="BN10">
+        <v>0.13</v>
+      </c>
+      <c r="BO10">
+        <v>0.4</v>
+      </c>
+      <c r="BP10">
+        <v>2.83</v>
+      </c>
+      <c r="BQ10">
+        <v>2.56</v>
+      </c>
+      <c r="BR10">
+        <v>0.27</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>5.53</v>
+      </c>
+      <c r="BU10">
+        <v>0.4</v>
+      </c>
+      <c r="BV10">
+        <v>0.27</v>
+      </c>
+      <c r="BW10">
+        <v>3.23</v>
+      </c>
+      <c r="BX10">
+        <v>1.62</v>
+      </c>
+      <c r="BY10">
+        <v>0.67</v>
+      </c>
+      <c r="BZ10">
+        <v>2.7</v>
+      </c>
+      <c r="CA10">
+        <v>1.08</v>
+      </c>
+      <c r="CB10">
+        <v>0.4</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0.13</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0.4</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CJ10">
+        <v>0.27</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0.27</v>
+      </c>
+      <c r="CP10">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>10.11</v>
+      </c>
+      <c r="CS10">
+        <v>7.55</v>
+      </c>
+      <c r="CT10">
+        <v>0.13</v>
+      </c>
+      <c r="CU10">
+        <v>1.21</v>
+      </c>
+      <c r="CV10">
+        <v>4.99</v>
+      </c>
+      <c r="CW10">
+        <v>0.54</v>
+      </c>
+      <c r="CX10">
+        <v>0.13</v>
+      </c>
+      <c r="CY10">
+        <v>0.67</v>
+      </c>
+      <c r="CZ10">
+        <v>4.04</v>
+      </c>
+      <c r="DA10">
+        <v>4.45</v>
+      </c>
+      <c r="DB10">
+        <v>4.58</v>
+      </c>
+      <c r="DC10">
+        <v>1.08</v>
+      </c>
+      <c r="DD10">
+        <v>0.27</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DF10">
+        <v>0.27</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DH10">
+        <v>0</v>
+      </c>
+      <c r="DI10">
+        <v>14.29</v>
+      </c>
+      <c r="DJ10">
+        <v>7.82</v>
+      </c>
+      <c r="DK10">
+        <v>4.45</v>
+      </c>
+      <c r="DL10">
+        <v>0</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>1.48</v>
+      </c>
+      <c r="DO10">
+        <v>0.54</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:120">
+      <c r="A11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>78.28</v>
+      </c>
+      <c r="E11">
+        <v>11.66</v>
+      </c>
+      <c r="F11">
+        <v>15.38</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11">
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <v>68.75</v>
+      </c>
+      <c r="K11">
+        <v>68.75</v>
+      </c>
+      <c r="L11">
+        <v>62.5</v>
+      </c>
+      <c r="M11">
+        <v>18.75</v>
+      </c>
+      <c r="N11">
+        <v>6.25</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>6.25</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>12.5</v>
+      </c>
+      <c r="U11">
+        <v>31.25</v>
+      </c>
+      <c r="V11">
+        <v>12.5</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>18.75</v>
+      </c>
+      <c r="Y11">
+        <v>6.25</v>
+      </c>
+      <c r="Z11">
+        <v>6.25</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>6.25</v>
+      </c>
+      <c r="AC11">
+        <v>12.5</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>6.25</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>6.25</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>6.25</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>6.25</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>6.25</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
+        <v>6.25</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>0</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>0</v>
+      </c>
+      <c r="BZ11">
+        <v>0</v>
+      </c>
+      <c r="CA11">
+        <v>0</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>6.25</v>
+      </c>
+      <c r="CS11">
+        <v>18.75</v>
+      </c>
+      <c r="CT11">
+        <v>6.25</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>12.5</v>
+      </c>
+      <c r="CW11">
+        <v>6.25</v>
+      </c>
+      <c r="CX11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="CZ11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DB11">
+        <v>6.25</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DH11">
+        <v>0</v>
+      </c>
+      <c r="DI11">
+        <v>18.75</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>0</v>
+      </c>
+      <c r="DL11">
+        <v>6.25</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>6.25</v>
+      </c>
+      <c r="DO11">
+        <v>6.25</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:120">
+      <c r="A12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>73.36</v>
+      </c>
+      <c r="E12">
+        <v>6.61</v>
+      </c>
+      <c r="F12">
+        <v>15.38</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>20.83</v>
+      </c>
+      <c r="J12">
+        <v>87.5</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>45.83</v>
+      </c>
+      <c r="M12">
+        <v>4.17</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>4.17</v>
+      </c>
+      <c r="U12">
+        <v>8.33</v>
+      </c>
+      <c r="V12">
+        <v>8.33</v>
+      </c>
+      <c r="W12">
+        <v>12.5</v>
+      </c>
+      <c r="X12">
+        <v>16.67</v>
+      </c>
+      <c r="Y12">
+        <v>8.33</v>
+      </c>
+      <c r="Z12">
+        <v>12.5</v>
+      </c>
+      <c r="AA12">
+        <v>4.17</v>
+      </c>
+      <c r="AB12">
+        <v>4.17</v>
+      </c>
+      <c r="AC12">
+        <v>12.5</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>20.83</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>20.83</v>
+      </c>
+      <c r="AJ12">
+        <v>16.67</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>12.5</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>4.17</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>4.17</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>4.17</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>8.33</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>8.33</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>12.5</v>
+      </c>
+      <c r="BQ12">
+        <v>12.5</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>0</v>
+      </c>
+      <c r="BZ12">
+        <v>0</v>
+      </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>8.33</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>4.17</v>
+      </c>
+      <c r="CV12">
+        <v>4.17</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>12.5</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>25</v>
+      </c>
+      <c r="DJ12">
+        <v>12.5</v>
+      </c>
+      <c r="DK12">
+        <v>0</v>
+      </c>
+      <c r="DL12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DN12">
+        <v>4.17</v>
+      </c>
+      <c r="DO12">
+        <v>8.33</v>
+      </c>
+      <c r="DP12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:120">
+      <c r="A13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>94.5</v>
+      </c>
+      <c r="E13">
+        <v>17.46</v>
+      </c>
+      <c r="F13">
+        <v>79.84</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>31.82</v>
+      </c>
+      <c r="J13">
+        <v>63.64</v>
+      </c>
+      <c r="K13">
+        <v>40.91</v>
+      </c>
+      <c r="L13">
+        <v>31.82</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>9.09</v>
+      </c>
+      <c r="V13">
+        <v>9.09</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>9.09</v>
+      </c>
+      <c r="Y13">
+        <v>13.64</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>18.18</v>
+      </c>
+      <c r="AD13">
+        <v>4.55</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>36.36</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>13.64</v>
+      </c>
+      <c r="AM13">
+        <v>9.09</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>4.55</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
+      <c r="BJ13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>0</v>
+      </c>
+      <c r="BL13">
+        <v>0</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>4.55</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>0</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>4.55</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="CZ13">
+        <v>9.09</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DB13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>13.64</v>
+      </c>
+      <c r="DD13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DF13">
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DH13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>13.64</v>
+      </c>
+      <c r="DJ13">
+        <v>9.09</v>
+      </c>
+      <c r="DK13">
+        <v>0</v>
+      </c>
+      <c r="DL13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>0</v>
+      </c>
+      <c r="DN13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>4.55</v>
+      </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9564,7 +14313,7 @@
     </row>
     <row r="2" spans="1:120">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9926,7 +14675,7 @@
     </row>
     <row r="3" spans="1:120">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -10288,7 +15037,7 @@
     </row>
     <row r="4" spans="1:120">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -10650,7 +15399,7 @@
     </row>
     <row r="5" spans="1:120">
       <c r="A5" s="2" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -11012,7 +15761,7 @@
     </row>
     <row r="6" spans="1:120">
       <c r="A6" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -11371,7 +16120,7 @@
     </row>
     <row r="7" spans="1:120">
       <c r="A7" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -11733,7 +16482,7 @@
     </row>
     <row r="8" spans="1:120">
       <c r="A8" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -12095,7 +16844,7 @@
     </row>
     <row r="9" spans="1:120">
       <c r="A9" s="2" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -12457,7 +17206,7 @@
     </row>
     <row r="10" spans="1:120">
       <c r="A10" s="2" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -12816,7 +17565,7 @@
     </row>
     <row r="11" spans="1:120">
       <c r="A11" s="2" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -13175,7 +17924,7 @@
     </row>
     <row r="12" spans="1:120">
       <c r="A12" s="2" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -13537,7 +18286,7 @@
     </row>
     <row r="13" spans="1:120">
       <c r="A13" s="2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -13893,7 +18642,7 @@
     </row>
     <row r="14" spans="1:120">
       <c r="A14" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -14255,7 +19004,7 @@
     </row>
     <row r="15" spans="1:120">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -14617,7 +19366,7 @@
     </row>
     <row r="16" spans="1:120">
       <c r="A16" s="2" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -14979,7 +19728,7 @@
     </row>
     <row r="17" spans="1:120">
       <c r="A17" s="2" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -15341,7 +20090,7 @@
     </row>
     <row r="18" spans="1:120">
       <c r="A18" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -15703,7 +20452,7 @@
     </row>
     <row r="19" spans="1:120">
       <c r="A19" s="2" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -16065,7 +20814,7 @@
     </row>
     <row r="20" spans="1:120">
       <c r="A20" s="2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -16427,7 +21176,7 @@
     </row>
     <row r="21" spans="1:120">
       <c r="A21" s="2" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -16789,7 +21538,7 @@
     </row>
     <row r="22" spans="1:120">
       <c r="A22" s="2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -17151,7 +21900,7 @@
     </row>
     <row r="23" spans="1:120">
       <c r="A23" s="2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -17504,7 +22253,7 @@
     </row>
     <row r="24" spans="1:120">
       <c r="A24" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -17866,7 +22615,7 @@
     </row>
     <row r="25" spans="1:120">
       <c r="A25" s="2" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -18225,7 +22974,7 @@
     </row>
     <row r="26" spans="1:120">
       <c r="A26" s="2" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -18584,7 +23333,7 @@
     </row>
     <row r="27" spans="1:120">
       <c r="A27" s="2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -18946,7 +23695,7 @@
     </row>
     <row r="28" spans="1:120">
       <c r="A28" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -19308,7 +24057,7 @@
     </row>
     <row r="29" spans="1:120">
       <c r="A29" s="2" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -19670,7 +24419,7 @@
     </row>
     <row r="30" spans="1:120">
       <c r="A30" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -20029,7 +24778,7 @@
     </row>
     <row r="31" spans="1:120">
       <c r="A31" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -20426,7 +25175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP66"/>
   <sheetViews>
@@ -20798,7 +25547,7 @@
     </row>
     <row r="2" spans="1:120">
       <c r="A2" s="2" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -21157,7 +25906,7 @@
     </row>
     <row r="3" spans="1:120">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -21513,7 +26262,7 @@
     </row>
     <row r="4" spans="1:120">
       <c r="A4" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -21872,7 +26621,7 @@
     </row>
     <row r="5" spans="1:120">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -22231,7 +26980,7 @@
     </row>
     <row r="6" spans="1:120">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -22593,7 +27342,7 @@
     </row>
     <row r="7" spans="1:120">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -22952,7 +27701,7 @@
     </row>
     <row r="8" spans="1:120">
       <c r="A8" s="2" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -23314,7 +28063,7 @@
     </row>
     <row r="9" spans="1:120">
       <c r="A9" s="2" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -23673,7 +28422,7 @@
     </row>
     <row r="10" spans="1:120">
       <c r="A10" s="2" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -24035,7 +28784,7 @@
     </row>
     <row r="11" spans="1:120">
       <c r="A11" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -24397,7 +29146,7 @@
     </row>
     <row r="12" spans="1:120">
       <c r="A12" s="2" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -24759,7 +29508,7 @@
     </row>
     <row r="13" spans="1:120">
       <c r="A13" s="2" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -25118,7 +29867,7 @@
     </row>
     <row r="14" spans="1:120">
       <c r="A14" s="2" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -25480,7 +30229,7 @@
     </row>
     <row r="15" spans="1:120">
       <c r="A15" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -25839,7 +30588,7 @@
     </row>
     <row r="16" spans="1:120">
       <c r="A16" s="2" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -26198,7 +30947,7 @@
     </row>
     <row r="17" spans="1:120">
       <c r="A17" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -26557,7 +31306,7 @@
     </row>
     <row r="18" spans="1:120">
       <c r="A18" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -26919,7 +31668,7 @@
     </row>
     <row r="19" spans="1:120">
       <c r="A19" s="2" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -27278,7 +32027,7 @@
     </row>
     <row r="20" spans="1:120">
       <c r="A20" s="2" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -27637,7 +32386,7 @@
     </row>
     <row r="21" spans="1:120">
       <c r="A21" s="2" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -27993,7 +32742,7 @@
     </row>
     <row r="22" spans="1:120">
       <c r="A22" s="2" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -28355,7 +33104,7 @@
     </row>
     <row r="23" spans="1:120">
       <c r="A23" s="2" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -28717,7 +33466,7 @@
     </row>
     <row r="24" spans="1:120">
       <c r="A24" s="2" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -29079,7 +33828,7 @@
     </row>
     <row r="25" spans="1:120">
       <c r="A25" s="2" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -29441,7 +34190,7 @@
     </row>
     <row r="26" spans="1:120">
       <c r="A26" s="2" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -29800,7 +34549,7 @@
     </row>
     <row r="27" spans="1:120">
       <c r="A27" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -30162,7 +34911,7 @@
     </row>
     <row r="28" spans="1:120">
       <c r="A28" s="2" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -30521,7 +35270,7 @@
     </row>
     <row r="29" spans="1:120">
       <c r="A29" s="2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -30883,7 +35632,7 @@
     </row>
     <row r="30" spans="1:120">
       <c r="A30" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -31245,7 +35994,7 @@
     </row>
     <row r="31" spans="1:120">
       <c r="A31" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -31604,7 +36353,7 @@
     </row>
     <row r="32" spans="1:120">
       <c r="A32" s="2" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -31963,7 +36712,7 @@
     </row>
     <row r="33" spans="1:120">
       <c r="A33" s="2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -32325,7 +37074,7 @@
     </row>
     <row r="34" spans="1:120">
       <c r="A34" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -32681,7 +37430,7 @@
     </row>
     <row r="35" spans="1:120">
       <c r="A35" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -33040,7 +37789,7 @@
     </row>
     <row r="36" spans="1:120">
       <c r="A36" s="2" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -33402,7 +38151,7 @@
     </row>
     <row r="37" spans="1:120">
       <c r="A37" s="2" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -33764,7 +38513,7 @@
     </row>
     <row r="38" spans="1:120">
       <c r="A38" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -34126,7 +38875,7 @@
     </row>
     <row r="39" spans="1:120">
       <c r="A39" s="2" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -34488,7 +39237,7 @@
     </row>
     <row r="40" spans="1:120">
       <c r="A40" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -34847,7 +39596,7 @@
     </row>
     <row r="41" spans="1:120">
       <c r="A41" s="2" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -35209,7 +39958,7 @@
     </row>
     <row r="42" spans="1:120">
       <c r="A42" s="2" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -35571,7 +40320,7 @@
     </row>
     <row r="43" spans="1:120">
       <c r="A43" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -35930,7 +40679,7 @@
     </row>
     <row r="44" spans="1:120">
       <c r="A44" s="2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -36292,7 +41041,7 @@
     </row>
     <row r="45" spans="1:120">
       <c r="A45" s="2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -36651,7 +41400,7 @@
     </row>
     <row r="46" spans="1:120">
       <c r="A46" s="2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -37013,7 +41762,7 @@
     </row>
     <row r="47" spans="1:120">
       <c r="A47" s="2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -37372,7 +42121,7 @@
     </row>
     <row r="48" spans="1:120">
       <c r="A48" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -37734,7 +42483,7 @@
     </row>
     <row r="49" spans="1:120">
       <c r="A49" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -38093,7 +42842,7 @@
     </row>
     <row r="50" spans="1:120">
       <c r="A50" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -38455,7 +43204,7 @@
     </row>
     <row r="51" spans="1:120">
       <c r="A51" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -38817,7 +43566,7 @@
     </row>
     <row r="52" spans="1:120">
       <c r="A52" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -39179,7 +43928,7 @@
     </row>
     <row r="53" spans="1:120">
       <c r="A53" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -39541,7 +44290,7 @@
     </row>
     <row r="54" spans="1:120">
       <c r="A54" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -39903,7 +44652,7 @@
     </row>
     <row r="55" spans="1:120">
       <c r="A55" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -40265,7 +45014,7 @@
     </row>
     <row r="56" spans="1:120">
       <c r="A56" s="2" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -40627,7 +45376,7 @@
     </row>
     <row r="57" spans="1:120">
       <c r="A57" s="2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -40989,7 +45738,7 @@
     </row>
     <row r="58" spans="1:120">
       <c r="A58" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -41348,7 +46097,7 @@
     </row>
     <row r="59" spans="1:120">
       <c r="A59" s="2" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -41710,7 +46459,7 @@
     </row>
     <row r="60" spans="1:120">
       <c r="A60" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -42069,7 +46818,7 @@
     </row>
     <row r="61" spans="1:120">
       <c r="A61" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -42431,7 +47180,7 @@
     </row>
     <row r="62" spans="1:120">
       <c r="A62" s="2" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -42793,7 +47542,7 @@
     </row>
     <row r="63" spans="1:120">
       <c r="A63" s="2" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -43155,7 +47904,7 @@
     </row>
     <row r="64" spans="1:120">
       <c r="A64" s="2" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -43511,7 +48260,7 @@
     </row>
     <row r="65" spans="1:120">
       <c r="A65" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -43873,7 +48622,7 @@
     </row>
     <row r="66" spans="1:120">
       <c r="A66" s="2" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -44305,7 +49054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:DP31"/>
   <sheetViews>
@@ -44677,7 +49426,7 @@
     </row>
     <row r="2" spans="1:120">
       <c r="A2" s="2" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -45039,7 +49788,7 @@
     </row>
     <row r="3" spans="1:120">
       <c r="A3" s="2" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -45401,7 +50150,7 @@
     </row>
     <row r="4" spans="1:120">
       <c r="A4" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -45763,7 +50512,7 @@
     </row>
     <row r="5" spans="1:120">
       <c r="A5" s="2" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -46125,7 +50874,7 @@
     </row>
     <row r="6" spans="1:120">
       <c r="A6" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -46487,7 +51236,7 @@
     </row>
     <row r="7" spans="1:120">
       <c r="A7" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -46849,7 +51598,7 @@
     </row>
     <row r="8" spans="1:120">
       <c r="A8" s="2" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -47211,7 +51960,7 @@
     </row>
     <row r="9" spans="1:120">
       <c r="A9" s="2" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -47570,7 +52319,7 @@
     </row>
     <row r="10" spans="1:120">
       <c r="A10" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -47932,7 +52681,7 @@
     </row>
     <row r="11" spans="1:120">
       <c r="A11" s="2" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -48294,7 +53043,7 @@
     </row>
     <row r="12" spans="1:120">
       <c r="A12" s="2" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -48653,7 +53402,7 @@
     </row>
     <row r="13" spans="1:120">
       <c r="A13" s="2" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -49015,7 +53764,7 @@
     </row>
     <row r="14" spans="1:120">
       <c r="A14" s="2" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -49377,7 +54126,7 @@
     </row>
     <row r="15" spans="1:120">
       <c r="A15" s="2" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -49739,7 +54488,7 @@
     </row>
     <row r="16" spans="1:120">
       <c r="A16" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -50101,7 +54850,7 @@
     </row>
     <row r="17" spans="1:120">
       <c r="A17" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -50463,7 +55212,7 @@
     </row>
     <row r="18" spans="1:120">
       <c r="A18" s="2" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -50825,7 +55574,7 @@
     </row>
     <row r="19" spans="1:120">
       <c r="A19" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -51187,7 +55936,7 @@
     </row>
     <row r="20" spans="1:120">
       <c r="A20" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -51549,7 +56298,7 @@
     </row>
     <row r="21" spans="1:120">
       <c r="A21" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -51911,7 +56660,7 @@
     </row>
     <row r="22" spans="1:120">
       <c r="A22" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -52273,7 +57022,7 @@
     </row>
     <row r="23" spans="1:120">
       <c r="A23" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -52635,7 +57384,7 @@
     </row>
     <row r="24" spans="1:120">
       <c r="A24" s="2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -52994,7 +57743,7 @@
     </row>
     <row r="25" spans="1:120">
       <c r="A25" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -53356,7 +58105,7 @@
     </row>
     <row r="26" spans="1:120">
       <c r="A26" s="2" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -53718,7 +58467,7 @@
     </row>
     <row r="27" spans="1:120">
       <c r="A27" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -54080,7 +58829,7 @@
     </row>
     <row r="28" spans="1:120">
       <c r="A28" s="2" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -54442,7 +59191,7 @@
     </row>
     <row r="29" spans="1:120">
       <c r="A29" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -54804,7 +59553,7 @@
     </row>
     <row r="30" spans="1:120">
       <c r="A30" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -55166,7 +59915,7 @@
     </row>
     <row r="31" spans="1:120">
       <c r="A31" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B31">
         <v>1</v>
